--- a/tut05/output/0401CS20.xlsx
+++ b/tut05/output/0401CS20.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.693877551020408</v>
+        <v>8.69</v>
       </c>
       <c r="C6" t="n">
-        <v>8.954545454545455</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.302325581395349</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.319148936170214</v>
+        <v>9.32</v>
       </c>
       <c r="F6" t="n">
-        <v>9.69047619047619</v>
+        <v>9.69</v>
       </c>
       <c r="G6" t="n">
         <v>9.15</v>
       </c>
       <c r="H6" t="n">
-        <v>9.414634146341463</v>
+        <v>9.41</v>
       </c>
       <c r="I6" t="n">
         <v>9.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.693877551020408</v>
+        <v>8.69</v>
       </c>
       <c r="C8" t="n">
-        <v>8.817204301075268</v>
+        <v>8.82</v>
       </c>
       <c r="D8" t="n">
-        <v>8.970588235294118</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>9.060109289617486</v>
+        <v>9.06</v>
       </c>
       <c r="F8" t="n">
-        <v>9.177777777777777</v>
+        <v>9.18</v>
       </c>
       <c r="G8" t="n">
-        <v>9.173584905660377</v>
+        <v>9.17</v>
       </c>
       <c r="H8" t="n">
-        <v>9.205882352941176</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>9.245664739884393</v>
+        <v>9.25</v>
       </c>
     </row>
   </sheetData>
